--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="304">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -422,6 +422,516 @@
   </si>
   <si>
     <t xml:space="preserve">avenue de Ouzguita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವರ್ಚುವಲ್ ಸೆಂಟರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವರ್ಚುವಲ್ ವಿಳಾಸ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವರ್ಚುವಲ್ ವಿಳಾಸ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನನ್ನ ದೇಶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಎ ಬೆನ್ ಮನ್ಸೂರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಬೆನ್ ಮನ್ಸೂರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಜಾನ್ ಡೋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಗ್ರಾಮೀಣ ಪುರಸಭೆ ಮ್ನಾಸ್ರಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮಾರ್ಗ ಡಿ ಮೌಲೆ ಬೌಸೆಲ್‌ಹ್ಯಾಮ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಡೌರ್ ಸ್ಬಿಹ್ ಮೆನಾಸೆರಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಜಾನ್ ಸ್ಮಿತ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೌಕ್ ಖೆಮಿಸ್ ಮೊಗ್ರಾನ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮಾರ್ಗ N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮೈಗ್ರೇನ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮಾರಿಯೋ ಸ್ಪೀಡ್‌ವ್ಯಾಗನ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೇಂದ್ರ ಅಸ್ಸಾಂ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 ಕಿಮೀ ಟ್ಯಾಂಜಿಯರ್ ರಸ್ತೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೆನಿತ್ರಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೈಜ್ ಟರ್ನರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಮೆಹದಿಯಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮೆಹದಿಯಾ ರಸ್ತೆ ಅಮ್ರಿಯಾ ಮೆಹದಿಯಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮರೋಕ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವಾಲ್ಟರ್ ಕಲ್ಲಂಗಡಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ Ouled Oujih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಬ್ಲಾಕ್ 1 G1 N113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಬಾರ್ಬ್ ಅಕ್ಯು</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೇಂದ್ರ ಸಿಡಿ ತೈಬಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ರಬತ್ ರಸ್ತೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸಿಡಿ ತೈಬಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮಾಂಟೆ ಕಾರ್ಲೊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಸಿಡಿ ಅಲ್ಲಲ್ ತಾಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ರಾಷ್ಟ್ರೀಯ ರಸ್ತೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅಲ್ಲಾ ತಾಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕ್ಲಿಫ್ ಹ್ಯಾಂಗರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೇಂದ್ರ ಅಗ್ಡಾಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಫ್ರೆಂಚ್ ಅವೆನ್ಯೂ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ರಬತ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ರಾಬಿನ್ ಬ್ಯಾಂಕ್ಸ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೇಂದ್ರ ಹಾಸನ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅವೆನ್ಯೂ ಅಮೀರ್ ಮೌಲೆ ಅಬ್ದುಲ್ಲಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮ್ಯಾಕ್ಸ್ ಎಮುಮ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಸೌಸಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅವೆನ್ಯೂ ಮೊಹಮ್ಮದ್ VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮಿನ್ನಿ ಅಮ್ಮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಮದೀನತ್ ಅಲ್ ಇರ್ಫಾನೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅವೆನ್ಯೂ ಅಲ್ಲಲ್ ಅಲ್ ಫಾಸ್ಸಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಬಿಲ್ ಯಾರ್ಡ್ಸ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಹೇ ರಿಯಾಡ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅವೆನ್ಯೂ ಅಲ್ ಅರಾರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಡಾನ್ ಡ್ರಫ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಮದೀನಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕಾನ್ಸುಲ್‌ಗಳ ಬೀದಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ರಿಕ್ ಶಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಯೂಸೌಫಿಯಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅವೆನ್ಯೂ ಔಜ್ಗುಯಿಟಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮಿಕ್ ಡೊನಾಲ್ಡ್ಸ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">आभासी केंद्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">आभासी पता 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">आभासी पता 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मेरा देश</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सेंटर ए बेन मंसूर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बेन मंसूर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जॉन डो</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ग्रामीण नगर मनसराय</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रूट डी मौले बौसेलहैम</t>
+  </si>
+  <si>
+    <t xml:space="preserve">डौर सबिह मेनसेरा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जॉन स्मिथ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सूक खेमिस मोग्रेन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मार्ग N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">माइग्रेन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मारियो स्पीडवैगन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र असम</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 किमी टंगेर रोड</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केनिट्रा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पैगे टर्नर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र मेहदिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मेहदिया रोड अमरिया मेहदिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मारोसी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">वाल्टर मेलन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र औलेड औजिहो</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ब्लॉक 1 G1 N113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बार्ब एक्यू</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र सिदी ताइबिक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रबत रोड</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सिदी ताइबि</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मौंटे कारलो</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र सिदी अल्लाल ताज़िक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">राष्ट्रीय सड़क</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अल्ला ताज़िक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">चट्टान हैंगर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र Agdal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">फ्रेंच एवेन्यू</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रबात</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रॉबिन बैंक्स</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र हसन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">एवेन्यू अमीर मौले अब्देलाह</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मैक्स एमम</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र सूसी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">एवेन्यू मोहम्मद VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मिन्नी माँ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र मदीनत अल इरफान</t>
+  </si>
+  <si>
+    <t xml:space="preserve">एवेन्यू अल्लाल अल फसी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बिल येर्ड्स</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र हे Riad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">एवेन्यू अल अरारी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रूसी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र मदीना</t>
+  </si>
+  <si>
+    <t xml:space="preserve">कौंसल की सड़क</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रिक शॉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र युसूफिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve">एवेन्यू औजगुइटा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मिक डोनाल्ड्स</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மெய்நிகர் மையம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மெய்நிகர் முகவரி 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மெய்நிகர் முகவரி 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">என் நாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சென்டர் ஏ பென் மன்சூர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பென் மன்சூர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஜான் டோ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">கிராமப்புற முனிசிபல் மனாஸ்ரா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பாதை டி மௌலே பௌசல்ஹாம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஜான் ஸ்மித்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souk Kemiss Mograne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பாதை N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஒற்றைத் தலைவலி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மரியோ ஸ்பீட்வேகன்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அசாம் மையம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 கிமீ டேன்ஜியர் சாலை</t>
+  </si>
+  <si>
+    <t xml:space="preserve">கெனிட்ரா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பைஜ் டர்னர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் மெஹதியா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மெஹ்தியா சாலை அம்ரியா மெஹதியா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மரோக்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">வால்டர் முலாம்பழம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் Ouled Oujih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">தொகுதி 1 G1 N113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பார்ப் அக்யூ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் சிடி தைபி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ரபாத் சாலை</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சிடி தைபி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மான்டே கார்லோ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் சிடி அல்லல் தாஜி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">தேசிய சாலை</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அல்லா தாசி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">கிளிஃப் ஹேங்கர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் அக்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பிரஞ்சு அவென்யூ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ரபாத்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ராபின் வங்கிகள்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் ஹாசன்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அவென்யூ அமீர் மௌலே அப்தெல்லா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அதிகபட்ச ஈமம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் Souissi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அவென்யூ முகமது VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மின்னி அம்மா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மதீனத் அல் இர்ஃபேன் மையம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அவென்யூ அல்லால் அல் ஃபாஸி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பில் யார்ட்ஸ்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் ஹே ரியாட்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அவென்யூ அல் அரார்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">டான் ட்ரஃப்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மதீனா மையம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">தூதரகத்தின் தெரு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ரிக் ஷா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் யூசுஃபியா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அவென்யூ Ouzguita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மிக் டொனால்ட்ஸ்</t>
   </si>
 </sst>
 </file>
@@ -432,7 +942,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -461,6 +971,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -512,7 +1028,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,6 +1057,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,13 +1082,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S37" activeCellId="0" sqref="S37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L81" activeCellId="0" sqref="L81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.39"/>
@@ -2929,56 +3453,3412 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="5"/>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
+      <c r="M34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
+      <c r="A35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>34.52117</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>-6.453275</v>
+      </c>
+      <c r="J35" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>34.360207</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>-6.550075</v>
+      </c>
+      <c r="J36" s="6" t="n">
+        <v>14053</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>753476995</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>34.405692</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>-6.433368</v>
+      </c>
+      <c r="J37" s="6" t="n">
+        <v>14023</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>734239083</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>34.287879</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>-6.516428</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>937997757</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>34.256414</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>-6.675499</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>14110</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>887311749</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>34.262477</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>-6.618605</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>14080</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>915790305</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>34.192861</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>-6.683662</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>14025</v>
+      </c>
+      <c r="K41" s="5" t="n">
+        <v>811552880</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>34.522414</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>-6.320471</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>14050</v>
+      </c>
+      <c r="K42" s="5" t="n">
+        <v>695325692</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M42" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>33.998232</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>-6.845728</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>10106</v>
+      </c>
+      <c r="K43" s="5" t="n">
+        <v>745360421</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M43" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>34.017502</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>-6.834745</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K44" s="5" t="n">
+        <v>766074745</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>33.986608</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>-6.828873</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>10105</v>
+      </c>
+      <c r="K45" s="5" t="n">
+        <v>787248921</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>33.978103</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>-6.867849</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>10112</v>
+      </c>
+      <c r="K46" s="5" t="n">
+        <v>838412388</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>33.953931</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>-6.874735</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>10104</v>
+      </c>
+      <c r="K47" s="5" t="n">
+        <v>751913644</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M47" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>34.027757</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>-6.834147</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K48" s="5" t="n">
+        <v>965639376</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M48" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>33.995612</v>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>-6.815281</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>10190</v>
+      </c>
+      <c r="K49" s="5" t="n">
+        <v>803062069</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M49" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>34.52117</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>-6.453275</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K51" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M51" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>34.360207</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <v>-6.550075</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>14053</v>
+      </c>
+      <c r="K52" s="5" t="n">
+        <v>753476995</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M52" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>34.405692</v>
+      </c>
+      <c r="I53" s="5" t="n">
+        <v>-6.433368</v>
+      </c>
+      <c r="J53" s="6" t="n">
+        <v>14023</v>
+      </c>
+      <c r="K53" s="5" t="n">
+        <v>734239083</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M53" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>34.287879</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <v>-6.516428</v>
+      </c>
+      <c r="J54" s="6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K54" s="5" t="n">
+        <v>937997757</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="M54" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>34.256414</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>-6.675499</v>
+      </c>
+      <c r="J55" s="6" t="n">
+        <v>14110</v>
+      </c>
+      <c r="K55" s="5" t="n">
+        <v>887311749</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="M55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>34.262477</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <v>-6.618605</v>
+      </c>
+      <c r="J56" s="6" t="n">
+        <v>14080</v>
+      </c>
+      <c r="K56" s="5" t="n">
+        <v>915790305</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M56" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <v>34.192861</v>
+      </c>
+      <c r="I57" s="5" t="n">
+        <v>-6.683662</v>
+      </c>
+      <c r="J57" s="6" t="n">
+        <v>14025</v>
+      </c>
+      <c r="K57" s="5" t="n">
+        <v>811552880</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M57" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>34.522414</v>
+      </c>
+      <c r="I58" s="5" t="n">
+        <v>-6.320471</v>
+      </c>
+      <c r="J58" s="6" t="n">
+        <v>14050</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>695325692</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M58" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>33.998232</v>
+      </c>
+      <c r="I59" s="5" t="n">
+        <v>-6.845728</v>
+      </c>
+      <c r="J59" s="6" t="n">
+        <v>10106</v>
+      </c>
+      <c r="K59" s="5" t="n">
+        <v>745360421</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M59" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>34.017502</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <v>-6.834745</v>
+      </c>
+      <c r="J60" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K60" s="5" t="n">
+        <v>766074745</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M60" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" s="5" t="n">
+        <v>33.986608</v>
+      </c>
+      <c r="I61" s="5" t="n">
+        <v>-6.828873</v>
+      </c>
+      <c r="J61" s="6" t="n">
+        <v>10105</v>
+      </c>
+      <c r="K61" s="5" t="n">
+        <v>787248921</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M61" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>33.978103</v>
+      </c>
+      <c r="I62" s="5" t="n">
+        <v>-6.867849</v>
+      </c>
+      <c r="J62" s="6" t="n">
+        <v>10112</v>
+      </c>
+      <c r="K62" s="5" t="n">
+        <v>838412388</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M62" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>33.953931</v>
+      </c>
+      <c r="I63" s="5" t="n">
+        <v>-6.874735</v>
+      </c>
+      <c r="J63" s="6" t="n">
+        <v>10104</v>
+      </c>
+      <c r="K63" s="5" t="n">
+        <v>751913644</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="M63" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>34.027757</v>
+      </c>
+      <c r="I64" s="5" t="n">
+        <v>-6.834147</v>
+      </c>
+      <c r="J64" s="6" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K64" s="5" t="n">
+        <v>965639376</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M64" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>33.995612</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>-6.815281</v>
+      </c>
+      <c r="J65" s="6" t="n">
+        <v>10190</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>803062069</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="M65" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>34.52117</v>
+      </c>
+      <c r="I67" s="5" t="n">
+        <v>-6.453275</v>
+      </c>
+      <c r="J67" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K67" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="M67" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>34.360207</v>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>-6.550075</v>
+      </c>
+      <c r="J68" s="6" t="n">
+        <v>14053</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>753476995</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="M68" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>34.405692</v>
+      </c>
+      <c r="I69" s="5" t="n">
+        <v>-6.433368</v>
+      </c>
+      <c r="J69" s="6" t="n">
+        <v>14023</v>
+      </c>
+      <c r="K69" s="5" t="n">
+        <v>734239083</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="M69" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>34.287879</v>
+      </c>
+      <c r="I70" s="5" t="n">
+        <v>-6.516428</v>
+      </c>
+      <c r="J70" s="6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K70" s="5" t="n">
+        <v>937997757</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="M70" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>34.256414</v>
+      </c>
+      <c r="I71" s="5" t="n">
+        <v>-6.675499</v>
+      </c>
+      <c r="J71" s="6" t="n">
+        <v>14110</v>
+      </c>
+      <c r="K71" s="5" t="n">
+        <v>887311749</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>34.262477</v>
+      </c>
+      <c r="I72" s="5" t="n">
+        <v>-6.618605</v>
+      </c>
+      <c r="J72" s="6" t="n">
+        <v>14080</v>
+      </c>
+      <c r="K72" s="5" t="n">
+        <v>915790305</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="M72" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>34.192861</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>-6.683662</v>
+      </c>
+      <c r="J73" s="6" t="n">
+        <v>14025</v>
+      </c>
+      <c r="K73" s="5" t="n">
+        <v>811552880</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M73" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H74" s="5" t="n">
+        <v>34.522414</v>
+      </c>
+      <c r="I74" s="5" t="n">
+        <v>-6.320471</v>
+      </c>
+      <c r="J74" s="6" t="n">
+        <v>14050</v>
+      </c>
+      <c r="K74" s="5" t="n">
+        <v>695325692</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="M74" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H75" s="5" t="n">
+        <v>33.998232</v>
+      </c>
+      <c r="I75" s="5" t="n">
+        <v>-6.845728</v>
+      </c>
+      <c r="J75" s="6" t="n">
+        <v>10106</v>
+      </c>
+      <c r="K75" s="5" t="n">
+        <v>745360421</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="M75" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V75" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H76" s="5" t="n">
+        <v>34.017502</v>
+      </c>
+      <c r="I76" s="5" t="n">
+        <v>-6.834745</v>
+      </c>
+      <c r="J76" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K76" s="5" t="n">
+        <v>766074745</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M76" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <v>33.986608</v>
+      </c>
+      <c r="I77" s="5" t="n">
+        <v>-6.828873</v>
+      </c>
+      <c r="J77" s="6" t="n">
+        <v>10105</v>
+      </c>
+      <c r="K77" s="5" t="n">
+        <v>787248921</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="M77" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H78" s="5" t="n">
+        <v>33.978103</v>
+      </c>
+      <c r="I78" s="5" t="n">
+        <v>-6.867849</v>
+      </c>
+      <c r="J78" s="6" t="n">
+        <v>10112</v>
+      </c>
+      <c r="K78" s="5" t="n">
+        <v>838412388</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="M78" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H79" s="5" t="n">
+        <v>33.953931</v>
+      </c>
+      <c r="I79" s="5" t="n">
+        <v>-6.874735</v>
+      </c>
+      <c r="J79" s="6" t="n">
+        <v>10104</v>
+      </c>
+      <c r="K79" s="5" t="n">
+        <v>751913644</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="M79" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H80" s="5" t="n">
+        <v>34.027757</v>
+      </c>
+      <c r="I80" s="5" t="n">
+        <v>-6.834147</v>
+      </c>
+      <c r="J80" s="6" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K80" s="5" t="n">
+        <v>965639376</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="M80" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H81" s="5" t="n">
+        <v>33.995612</v>
+      </c>
+      <c r="I81" s="5" t="n">
+        <v>-6.815281</v>
+      </c>
+      <c r="J81" s="6" t="n">
+        <v>10190</v>
+      </c>
+      <c r="K81" s="5" t="n">
+        <v>803062069</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="M81" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U81" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V81" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -942,7 +942,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -971,12 +971,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1028,7 +1022,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1061,10 +1055,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,11 +1074,11 @@
   </sheetPr>
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L81" activeCellId="0" sqref="L81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.39"/>
@@ -5400,7 +5390,7 @@
       <c r="K61" s="5" t="n">
         <v>787248921</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="5" t="s">
         <v>235</v>
       </c>
       <c r="M61" s="5" t="n">

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6920" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="registration_center" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,151 +27,566 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="182">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cntrtyp_code</t>
+  </si>
+  <si>
+    <t>addr_line1</t>
+  </si>
+  <si>
+    <t>addr_line2</t>
+  </si>
+  <si>
+    <t>addr_line3</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>location_code</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>contact_person</t>
+  </si>
+  <si>
+    <t>number_of_kiosks</t>
+  </si>
+  <si>
+    <t>working_hours</t>
+  </si>
+  <si>
+    <t>per_kiosk_process_time</t>
+  </si>
+  <si>
+    <t>center_start_time</t>
+  </si>
+  <si>
+    <t>center_end_time</t>
+  </si>
+  <si>
+    <t>lunch_start_time</t>
+  </si>
+  <si>
+    <t>lunch_end_time</t>
+  </si>
+  <si>
+    <t>time_zone</t>
+  </si>
+  <si>
+    <t>holiday_loc_code</t>
+  </si>
+  <si>
+    <t>zone_code</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>cntrtyp_code</t>
-  </si>
-  <si>
-    <t>addr_line1</t>
-  </si>
-  <si>
-    <t>addr_line2</t>
-  </si>
-  <si>
-    <t>addr_line3</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>location_code</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>contact_person</t>
-  </si>
-  <si>
-    <t>number_of_kiosks</t>
-  </si>
-  <si>
-    <t>working_hours</t>
-  </si>
-  <si>
-    <t>per_kiosk_process_time</t>
-  </si>
-  <si>
-    <t>center_start_time</t>
-  </si>
-  <si>
-    <t>center_end_time</t>
-  </si>
-  <si>
-    <t>lunch_start_time</t>
-  </si>
-  <si>
-    <t>lunch_end_time</t>
-  </si>
-  <si>
-    <t>time_zone</t>
-  </si>
-  <si>
-    <t>holiday_loc_code</t>
-  </si>
-  <si>
-    <t>zone_code</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>DSLUVvD7Z4</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>DSLGTJysYL</t>
+  </si>
+  <si>
+    <t>rtestsd</t>
+  </si>
+  <si>
+    <t>(GTM+01:00) CENTRAL EUROPEAN TIME</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>Virtual centre</t>
-  </si>
-  <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>Virtual address 1</t>
-  </si>
-  <si>
-    <t>Virtual address 2</t>
-  </si>
-  <si>
-    <t>MyCountry</t>
-  </si>
-  <si>
-    <t>MOR</t>
-  </si>
-  <si>
-    <t>24:00:00</t>
-  </si>
-  <si>
-    <t>0:15:00</t>
-  </si>
-  <si>
-    <t>0:00:00</t>
-  </si>
-  <si>
-    <t>23:59:59</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>(GTM+01:00) CENTRAL EUROPEAN TIME</t>
-  </si>
-  <si>
-    <t>KTA</t>
-  </si>
-  <si>
-    <t>TRUE</t>
+    <t>masterdata-good0</t>
+  </si>
+  <si>
+    <t>DSL0YrAvrv</t>
+  </si>
+  <si>
+    <t>DSLm2AP645</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Kolkata center</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
+    <t>Kolkata center kl</t>
+  </si>
+  <si>
+    <t>howrah</t>
+  </si>
+  <si>
+    <t>BLR center</t>
+  </si>
+  <si>
+    <t>KCR</t>
+  </si>
+  <si>
+    <t>DSLJT10t3r</t>
+  </si>
+  <si>
+    <t>DSL8op01dq</t>
+  </si>
+  <si>
+    <t>DSL9TzNGTh</t>
+  </si>
+  <si>
+    <t>DSLZoqNo1E</t>
+  </si>
+  <si>
+    <t>DSL9hYCr2T</t>
+  </si>
+  <si>
+    <t>DSLE0RPh7r</t>
+  </si>
+  <si>
+    <t>DSLxBa1YAR</t>
+  </si>
+  <si>
+    <t>DSLWL93akC</t>
+  </si>
+  <si>
+    <t>DSL1b7zrXr</t>
+  </si>
+  <si>
+    <t>DSLMT77a65</t>
+  </si>
+  <si>
+    <t>DSLn2ozJy0</t>
+  </si>
+  <si>
+    <t>DSLVA9XJE5</t>
+  </si>
+  <si>
+    <t>DSLzN93rTs</t>
+  </si>
+  <si>
+    <t>DSLbndvtbd</t>
+  </si>
+  <si>
+    <t>DSLFSoAqlA</t>
+  </si>
+  <si>
+    <t>DSLGonA04Z</t>
+  </si>
+  <si>
+    <t>DSLEZJtAB1</t>
+  </si>
+  <si>
+    <t>DSLwGcFl2j</t>
+  </si>
+  <si>
+    <t>DSLtp6wlL1</t>
+  </si>
+  <si>
+    <t>DSLxPTKE6h</t>
+  </si>
+  <si>
+    <t>DSLd9pP29D</t>
+  </si>
+  <si>
+    <t>DSLiAsrPtv</t>
+  </si>
+  <si>
+    <t>DSLeUYyo91</t>
+  </si>
+  <si>
+    <t>DSLqcCd44w</t>
+  </si>
+  <si>
+    <t>DSLAY0Acor</t>
+  </si>
+  <si>
+    <t>DSLU4iufNx</t>
+  </si>
+  <si>
+    <t>DSLux3EeUs</t>
+  </si>
+  <si>
+    <t>DSLYclCmxp</t>
+  </si>
+  <si>
+    <t>DSL6Y5GaE0</t>
+  </si>
+  <si>
+    <t>DSLJWw10AK</t>
+  </si>
+  <si>
+    <t>DSLqwlt9u7</t>
+  </si>
+  <si>
+    <t>DSLtv8wg53</t>
+  </si>
+  <si>
+    <t>DSL4kApUiy</t>
+  </si>
+  <si>
+    <t>DSLeRnMK8C</t>
+  </si>
+  <si>
+    <t>DSL0dEJyqy</t>
+  </si>
+  <si>
+    <t>DSL0uu9E8y</t>
+  </si>
+  <si>
+    <t>DSL6nysDz1</t>
+  </si>
+  <si>
+    <t>DSLg7AXXKc</t>
+  </si>
+  <si>
+    <t>DSL1t61g7G</t>
+  </si>
+  <si>
+    <t>DSLPC6tntD</t>
+  </si>
+  <si>
+    <t>DSLZSSjt4A</t>
+  </si>
+  <si>
+    <t>DSLEutd5S0</t>
+  </si>
+  <si>
+    <t>DSLfiJxu75</t>
+  </si>
+  <si>
+    <t>DSLkWGXtNV</t>
+  </si>
+  <si>
+    <t>DSLwjDmkje</t>
+  </si>
+  <si>
+    <t>DSL7csLl2k</t>
+  </si>
+  <si>
+    <t>DSLYfrdEze</t>
+  </si>
+  <si>
+    <t>DSLyFeb8W5</t>
+  </si>
+  <si>
+    <t>DSLBmGueoJ</t>
+  </si>
+  <si>
+    <t>DSLZn92iG3</t>
+  </si>
+  <si>
+    <t>DSL7U3LtZP</t>
+  </si>
+  <si>
+    <t>DSLNotTRpV</t>
+  </si>
+  <si>
+    <t>DSL70WUDJv</t>
+  </si>
+  <si>
+    <t>DSLJ6xAFNU</t>
+  </si>
+  <si>
+    <t>DSLuyzSEEM</t>
+  </si>
+  <si>
+    <t>DSLJR9qDfu</t>
+  </si>
+  <si>
+    <t>DSLuigrsFE</t>
+  </si>
+  <si>
+    <t>DSLyF7LYYA</t>
+  </si>
+  <si>
+    <t>DSLcANhMle</t>
+  </si>
+  <si>
+    <t>DSLNk4bTEX</t>
+  </si>
+  <si>
+    <t>DSLPbnZJcX</t>
+  </si>
+  <si>
+    <t>DSLmay5697</t>
+  </si>
+  <si>
+    <t>DSLhECq8rU</t>
+  </si>
+  <si>
+    <t>DSLPxRqJNX</t>
+  </si>
+  <si>
+    <t>DSLMjU0Kwt</t>
+  </si>
+  <si>
+    <t>DSLuXCDa39</t>
+  </si>
+  <si>
+    <t>DSLF9eryb2</t>
+  </si>
+  <si>
+    <t>DSL58yDx0d</t>
+  </si>
+  <si>
+    <t>DSLLaEkd6c</t>
+  </si>
+  <si>
+    <t>DSLZVsSuzv</t>
+  </si>
+  <si>
+    <t>DSLc2tptbd</t>
+  </si>
+  <si>
+    <t>DSLrNjnuXA</t>
+  </si>
+  <si>
+    <t>DSLLPcsoNg</t>
+  </si>
+  <si>
+    <t>DSL51KxsLJ</t>
+  </si>
+  <si>
+    <t>DSL1cxmu65</t>
+  </si>
+  <si>
+    <t>DSLFExe5rp</t>
+  </si>
+  <si>
+    <t>DSLP3LS6uC</t>
+  </si>
+  <si>
+    <t>DSLTRokdRk</t>
+  </si>
+  <si>
+    <t>DSLULRDE2V</t>
+  </si>
+  <si>
+    <t>DSLUaklhgn</t>
+  </si>
+  <si>
+    <t>DSLpYVjRZ1</t>
+  </si>
+  <si>
+    <t>DSLuEA3jnu</t>
+  </si>
+  <si>
+    <t>DSLerMf7EN</t>
+  </si>
+  <si>
+    <t>DSL1tWRN91</t>
+  </si>
+  <si>
+    <t>DSLFT8twKo</t>
+  </si>
+  <si>
+    <t>DSLapr3yXR</t>
+  </si>
+  <si>
+    <t>DSLaME88Aq</t>
+  </si>
+  <si>
+    <t>DSL9b2KqCW</t>
+  </si>
+  <si>
+    <t>DSLXSBxeux</t>
+  </si>
+  <si>
+    <t>DSLZTyDs1D</t>
+  </si>
+  <si>
+    <t>DSLyznAXxU</t>
+  </si>
+  <si>
+    <t>DSLUeTGrZY</t>
+  </si>
+  <si>
+    <t>DSL0nxe5vP</t>
+  </si>
+  <si>
+    <t>DSLF2ClEYC</t>
+  </si>
+  <si>
+    <t>DSLcLNwJVR</t>
+  </si>
+  <si>
+    <t>DSLcMs99T8</t>
+  </si>
+  <si>
+    <t>DSLk5VLDsm</t>
+  </si>
+  <si>
+    <t>DSLywfK5an</t>
+  </si>
+  <si>
+    <t>DSLqFSSBkJ</t>
+  </si>
+  <si>
+    <t>DSLlk2gZv9</t>
+  </si>
+  <si>
+    <t>DSLU1Y8qyL</t>
+  </si>
+  <si>
+    <t>DSLGKRAbZD</t>
+  </si>
+  <si>
+    <t>DSLLW2igaM</t>
+  </si>
+  <si>
+    <t>DSLLwFt8Lc</t>
+  </si>
+  <si>
+    <t>DSLhizhMML</t>
+  </si>
+  <si>
+    <t>DSLt5ZtPp2</t>
+  </si>
+  <si>
+    <t>DSLbUULftJ</t>
+  </si>
+  <si>
+    <t>DSLeC35ffc</t>
+  </si>
+  <si>
+    <t>DSLq8Sscnh</t>
+  </si>
+  <si>
+    <t>DSL279EBqA</t>
+  </si>
+  <si>
+    <t>DSLvXZNmFF</t>
+  </si>
+  <si>
+    <t>DSLG6eh2rZ</t>
+  </si>
+  <si>
+    <t>DSLv9EF76j</t>
+  </si>
+  <si>
+    <t>DSLj5iwLMq</t>
+  </si>
+  <si>
+    <t>DSLngogbxf</t>
+  </si>
+  <si>
+    <t>DSLzLN2ZTV</t>
+  </si>
+  <si>
+    <t>DSLlRpvNfM</t>
+  </si>
+  <si>
+    <t>DSLR1LcNeT</t>
+  </si>
+  <si>
+    <t>DSLWD6rN62</t>
+  </si>
+  <si>
+    <t>DSLqoEe7UD</t>
+  </si>
+  <si>
+    <t>DSLfJ3z4oA</t>
+  </si>
+  <si>
+    <t>DSL0me7dbr</t>
+  </si>
+  <si>
+    <t>Electronic City</t>
+  </si>
+  <si>
+    <t>26 c Hosur Road</t>
+  </si>
+  <si>
+    <t>kirubesh</t>
+  </si>
+  <si>
+    <t>DSLKkFAzv0</t>
+  </si>
+  <si>
+    <t>DSL7jkFKwr</t>
+  </si>
+  <si>
+    <t>masterdata-avanish0</t>
+  </si>
+  <si>
+    <t>DSLctnYzA7</t>
+  </si>
+  <si>
+    <t>DSLrNdDCfZ</t>
+  </si>
+  <si>
+    <t>DSLzDDEYBj</t>
+  </si>
+  <si>
+    <t>DSLV3L6KBd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,27 +933,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,20 +1041,31 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,141 +1074,130 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -851,7 +1251,221 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -861,7 +1475,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -877,7 +1491,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -889,7 +1503,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -906,9 +1520,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -941,9 +1555,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1118,180 +1732,5693 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="10.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="10.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="13.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="29.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="19.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="11.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="8.63636363636364" customWidth="1"/>
-    <col min="9" max="9" width="10.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="13.7272727272727" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5454545454545" customWidth="1"/>
-    <col min="12" max="12" width="17.5454545454545" customWidth="1"/>
-    <col min="13" max="13" width="17.9090909090909" customWidth="1"/>
-    <col min="14" max="14" width="14.9090909090909" customWidth="1"/>
-    <col min="15" max="15" width="22.9090909090909" customWidth="1"/>
-    <col min="16" max="16" width="17.1818181818182" customWidth="1"/>
-    <col min="17" max="18" width="16.3636363636364" customWidth="1"/>
-    <col min="19" max="19" width="15.6363636363636" customWidth="1"/>
-    <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="16.5454545454545" customWidth="1"/>
-    <col min="22" max="22" width="10.8181818181818" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
+    <row r="2" spans="1:29">
+      <c r="A2">
+        <v>10025</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>78.5478</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>45.2456</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
+        <v>100001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3.5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>45442.3563204587</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>45442.363848774</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>45442.363848774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3">
+        <v>10036</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>78.5478</v>
+      </c>
+      <c r="H3">
+        <v>45.2456</v>
+      </c>
+      <c r="I3">
+        <v>100001</v>
+      </c>
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3.5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S3" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T3" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U3" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V3" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>45442.5726724431</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>45442.5726757533</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4">
+        <v>10016</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>39</v>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>88.3639</v>
+      </c>
+      <c r="H4">
+        <v>22.5726</v>
+      </c>
+      <c r="I4">
+        <v>100001</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>12.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.0104166666666667</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>45401.415495894</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>45401.4156313123</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5">
+        <v>10017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>98.3639</v>
+      </c>
+      <c r="H5">
+        <v>22.5726</v>
+      </c>
+      <c r="I5">
+        <v>100001</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>45401.4330291788</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>45407.4867975069</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6">
+        <v>10018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>77.5946</v>
+      </c>
+      <c r="H6">
+        <v>12.9716</v>
+      </c>
+      <c r="I6">
+        <v>100005</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.0104166666666667</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>45408.1934502641</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>45408.3436018768</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7">
+        <v>10029</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>78.5478</v>
+      </c>
+      <c r="H7">
+        <v>45.2456</v>
+      </c>
+      <c r="I7">
+        <v>100001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>45442.3952380394</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>45442.3952419375</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8">
+        <v>10020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>78.5478</v>
+      </c>
+      <c r="H8">
+        <v>45.2456</v>
+      </c>
+      <c r="I8">
+        <v>100001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3.5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>45442.2962236635</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>45442.2962273692</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9">
+        <v>10021</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>78.5478</v>
+      </c>
+      <c r="H9">
+        <v>45.2456</v>
+      </c>
+      <c r="I9">
+        <v>100001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>45442.2973111298</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>45442.2973153506</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10">
+        <v>10019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>78.5478</v>
+      </c>
+      <c r="H10">
+        <v>45.2456</v>
+      </c>
+      <c r="I10">
+        <v>100001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3.5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>45442.2959293927</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>45442.2980851786</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>45442.2980851786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11">
+        <v>10023</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>78.5478</v>
+      </c>
+      <c r="H11">
+        <v>45.2456</v>
+      </c>
+      <c r="I11">
+        <v>100001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>45442.3126589343</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>45442.312667868</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12">
+        <v>10024</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <v>78.5478</v>
+      </c>
+      <c r="H12">
+        <v>45.2456</v>
+      </c>
+      <c r="I12">
+        <v>100001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>45442.3161028199</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>45442.3161110583</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13">
+        <v>10022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>78.5478</v>
+      </c>
+      <c r="H13">
+        <v>45.2456</v>
+      </c>
+      <c r="I13">
+        <v>100001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3.5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>45442.3107288813</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>45442.3174893463</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>45442.3174893463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14">
+        <v>10034</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>78.5478</v>
+      </c>
+      <c r="H14">
+        <v>45.2456</v>
+      </c>
+      <c r="I14">
+        <v>100001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3.5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>45442.5715669222</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>45442.5733234321</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>45442.5733234321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15">
+        <v>10026</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>78.5478</v>
+      </c>
+      <c r="H15">
+        <v>45.2456</v>
+      </c>
+      <c r="I15">
+        <v>100001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3.5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>45442.3581969789</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>45442.3582049044</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16">
+        <v>10027</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <v>78.5478</v>
+      </c>
+      <c r="H16">
+        <v>45.2456</v>
+      </c>
+      <c r="I16">
+        <v>100001</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3.5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>45442.3607095308</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>45442.360719482</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17">
+        <v>10030</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>78.5478</v>
+      </c>
+      <c r="H17">
+        <v>45.2456</v>
+      </c>
+      <c r="I17">
+        <v>100001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3.5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S17" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>45442.3961553221</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>45442.3961602568</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18">
+        <v>10028</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18">
+        <v>78.5478</v>
+      </c>
+      <c r="H18">
+        <v>45.2456</v>
+      </c>
+      <c r="I18">
+        <v>100001</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3.5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>45442.3943932488</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>45442.3967073666</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>45442.3967073666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19">
+        <v>10031</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>78.5478</v>
+      </c>
+      <c r="H19">
+        <v>45.2456</v>
+      </c>
+      <c r="I19">
+        <v>100001</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>3.5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S19" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>45442.5661816253</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>45442.5661875211</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20">
+        <v>10032</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20">
+        <v>78.5478</v>
+      </c>
+      <c r="H20">
+        <v>45.2456</v>
+      </c>
+      <c r="I20">
+        <v>100001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>3.5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>45442.5663745959</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>45442.5663778662</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21">
+        <v>10033</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21">
+        <v>78.5478</v>
+      </c>
+      <c r="H21">
+        <v>45.2456</v>
+      </c>
+      <c r="I21">
+        <v>100001</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3.5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S21" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>45442.5674918477</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22">
+        <v>10039</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22">
+        <v>78.5478</v>
+      </c>
+      <c r="H22">
+        <v>45.2456</v>
+      </c>
+      <c r="I22">
+        <v>100001</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>3.5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S22" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>45446.4254830851</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>45446.4254891648</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23">
+        <v>10035</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23">
+        <v>78.5478</v>
+      </c>
+      <c r="H23">
+        <v>45.2456</v>
+      </c>
+      <c r="I23">
+        <v>100001</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>3.5</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>45442.5717629431</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>45442.5717667761</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24">
+        <v>10038</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24">
+        <v>78.5478</v>
+      </c>
+      <c r="H24">
+        <v>45.2456</v>
+      </c>
+      <c r="I24">
+        <v>100001</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>3.5</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S24" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>45446.2622314216</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>45446.2622350133</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25">
+        <v>10037</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25">
+        <v>78.5478</v>
+      </c>
+      <c r="H25">
+        <v>45.2456</v>
+      </c>
+      <c r="I25">
+        <v>100001</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>45446.2620272474</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>45446.264316322</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>45446.264316322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26">
+        <v>10040</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26">
+        <v>78.5478</v>
+      </c>
+      <c r="H26">
+        <v>45.2456</v>
+      </c>
+      <c r="I26">
+        <v>100001</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>3.5</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S26" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>45446.4256874941</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>45446.4256917305</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27">
+        <v>10041</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27">
+        <v>78.5478</v>
+      </c>
+      <c r="H27">
+        <v>45.2456</v>
+      </c>
+      <c r="I27">
+        <v>100001</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3.5</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S27" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>45446.426603794</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>45446.4266073317</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28">
+        <v>10043</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28">
+        <v>78.5478</v>
+      </c>
+      <c r="H28">
+        <v>45.2456</v>
+      </c>
+      <c r="I28">
+        <v>100001</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>3.5</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>45446.4434224775</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>45446.4434276812</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29">
+        <v>10042</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29">
+        <v>78.5478</v>
+      </c>
+      <c r="H29">
+        <v>45.2456</v>
+      </c>
+      <c r="I29">
+        <v>100001</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>3.5</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" t="s">
+        <v>35</v>
+      </c>
+      <c r="V29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>45446.443136342</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>45446.4449555544</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>45446.4449555544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30">
+        <v>10045</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30">
+        <v>78.5478</v>
+      </c>
+      <c r="H30">
+        <v>45.2456</v>
+      </c>
+      <c r="I30">
+        <v>100001</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>3.5</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" t="s">
+        <v>35</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" t="b">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>45446.4636581708</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>45446.4636628885</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31">
+        <v>10044</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>78.5478</v>
+      </c>
+      <c r="H31">
+        <v>45.2456</v>
+      </c>
+      <c r="I31">
+        <v>100001</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S31" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>45446.4634421339</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>45446.4665549617</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>45446.4665549617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32">
+        <v>10046</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32">
+        <v>78.5478</v>
+      </c>
+      <c r="H32">
+        <v>45.2456</v>
+      </c>
+      <c r="I32">
+        <v>100001</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>3.5</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S32" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" t="s">
+        <v>35</v>
+      </c>
+      <c r="V32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>45446.4650095015</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>45446.4650134978</v>
+      </c>
+      <c r="AB32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33">
+        <v>10048</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33">
+        <v>78.5478</v>
+      </c>
+      <c r="H33">
+        <v>45.2456</v>
+      </c>
+      <c r="I33">
+        <v>100001</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>3.5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S33" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" t="s">
+        <v>35</v>
+      </c>
+      <c r="V33" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>45446.4744714318</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>45446.4744756475</v>
+      </c>
+      <c r="AB33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34">
+        <v>10047</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34">
+        <v>78.5478</v>
+      </c>
+      <c r="H34">
+        <v>45.2456</v>
+      </c>
+      <c r="I34">
+        <v>100001</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>3.5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S34" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>45446.4740268177</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>45446.4760014281</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>45446.4760014281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35">
+        <v>10049</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35">
+        <v>78.5478</v>
+      </c>
+      <c r="H35">
+        <v>45.2456</v>
+      </c>
+      <c r="I35">
+        <v>100001</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>3.5</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S35" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" t="s">
+        <v>35</v>
+      </c>
+      <c r="V35" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>45446.4787372794</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>45446.4787423132</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36">
+        <v>10060</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36">
+        <v>78.5478</v>
+      </c>
+      <c r="H36">
+        <v>45.2456</v>
+      </c>
+      <c r="I36">
+        <v>100001</v>
+      </c>
+      <c r="K36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>3.5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S36" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36" t="s">
+        <v>35</v>
+      </c>
+      <c r="V36" t="s">
+        <v>36</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>45448.4018365426</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>45448.4018440525</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37">
+        <v>10051</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37">
+        <v>78.5478</v>
+      </c>
+      <c r="H37">
+        <v>45.2456</v>
+      </c>
+      <c r="I37">
+        <v>100001</v>
+      </c>
+      <c r="K37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>3.5</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" t="s">
+        <v>34</v>
+      </c>
+      <c r="U37" t="s">
+        <v>35</v>
+      </c>
+      <c r="V37" t="s">
+        <v>36</v>
+      </c>
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>45446.4910068829</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>45446.4910109533</v>
+      </c>
+      <c r="AB37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38">
+        <v>10050</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38">
+        <v>78.5478</v>
+      </c>
+      <c r="H38">
+        <v>45.2456</v>
+      </c>
+      <c r="I38">
+        <v>100001</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>3.5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S38" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" t="s">
+        <v>34</v>
+      </c>
+      <c r="U38" t="s">
+        <v>35</v>
+      </c>
+      <c r="V38" t="s">
+        <v>36</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>45446.4905331288</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>45446.492698655</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>45446.492698655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39">
+        <v>10052</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39">
+        <v>78.5478</v>
+      </c>
+      <c r="H39">
+        <v>45.2456</v>
+      </c>
+      <c r="I39">
+        <v>100001</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>3.5</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" t="s">
+        <v>34</v>
+      </c>
+      <c r="U39" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" t="b">
+        <v>1</v>
+      </c>
+      <c r="X39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>45446.5018614969</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>45446.5018677114</v>
+      </c>
+      <c r="AB39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40">
+        <v>10053</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40">
+        <v>78.5478</v>
+      </c>
+      <c r="H40">
+        <v>45.2456</v>
+      </c>
+      <c r="I40">
+        <v>100001</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>3.5</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S40" t="s">
+        <v>33</v>
+      </c>
+      <c r="T40" t="s">
+        <v>34</v>
+      </c>
+      <c r="U40" t="s">
+        <v>35</v>
+      </c>
+      <c r="V40" t="s">
+        <v>36</v>
+      </c>
+      <c r="W40" t="b">
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>45446.502077978</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>45446.5020826408</v>
+      </c>
+      <c r="AB40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41">
+        <v>10054</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41">
+        <v>78.5478</v>
+      </c>
+      <c r="H41">
+        <v>45.2456</v>
+      </c>
+      <c r="I41">
+        <v>100001</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>3.5</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S41" t="s">
+        <v>33</v>
+      </c>
+      <c r="T41" t="s">
+        <v>34</v>
+      </c>
+      <c r="U41" t="s">
+        <v>35</v>
+      </c>
+      <c r="V41" t="s">
+        <v>36</v>
+      </c>
+      <c r="W41" t="b">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>45446.5030062325</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>45446.5030107218</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42">
+        <v>10056</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42">
+        <v>78.5478</v>
+      </c>
+      <c r="H42">
+        <v>45.2456</v>
+      </c>
+      <c r="I42">
+        <v>100001</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>3.5</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S42" t="s">
+        <v>33</v>
+      </c>
+      <c r="T42" t="s">
+        <v>34</v>
+      </c>
+      <c r="U42" t="s">
+        <v>35</v>
+      </c>
+      <c r="V42" t="s">
+        <v>36</v>
+      </c>
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+      <c r="X42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>45448.2680579564</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>45448.268065965</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43">
+        <v>10057</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43">
+        <v>78.5478</v>
+      </c>
+      <c r="H43">
+        <v>45.2456</v>
+      </c>
+      <c r="I43">
+        <v>100001</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>3.5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S43" t="s">
+        <v>33</v>
+      </c>
+      <c r="T43" t="s">
+        <v>34</v>
+      </c>
+      <c r="U43" t="s">
+        <v>35</v>
+      </c>
+      <c r="V43" t="s">
+        <v>36</v>
+      </c>
+      <c r="W43" t="b">
+        <v>1</v>
+      </c>
+      <c r="X43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>45448.2690536125</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>45448.2690581079</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44">
+        <v>10055</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44">
+        <v>78.5478</v>
+      </c>
+      <c r="H44">
+        <v>45.2456</v>
+      </c>
+      <c r="I44">
+        <v>100001</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>3.5</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S44" t="s">
+        <v>33</v>
+      </c>
+      <c r="T44" t="s">
+        <v>34</v>
+      </c>
+      <c r="U44" t="s">
+        <v>35</v>
+      </c>
+      <c r="V44" t="s">
+        <v>36</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>45448.2678102567</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>45448.2698297743</v>
+      </c>
+      <c r="AB44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>45448.2698297743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45">
+        <v>10058</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45">
+        <v>78.5478</v>
+      </c>
+      <c r="H45">
+        <v>45.2456</v>
+      </c>
+      <c r="I45">
+        <v>100001</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3.5</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S45" t="s">
+        <v>33</v>
+      </c>
+      <c r="T45" t="s">
+        <v>34</v>
+      </c>
+      <c r="U45" t="s">
+        <v>35</v>
+      </c>
+      <c r="V45" t="s">
+        <v>36</v>
+      </c>
+      <c r="W45" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>45448.3987257825</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>45448.3987335062</v>
+      </c>
+      <c r="AB45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46">
+        <v>10059</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46">
+        <v>78.5478</v>
+      </c>
+      <c r="H46">
+        <v>45.2456</v>
+      </c>
+      <c r="I46">
+        <v>100001</v>
+      </c>
+      <c r="K46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>3.5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S46" t="s">
+        <v>33</v>
+      </c>
+      <c r="T46" t="s">
+        <v>34</v>
+      </c>
+      <c r="U46" t="s">
+        <v>35</v>
+      </c>
+      <c r="V46" t="s">
+        <v>36</v>
+      </c>
+      <c r="W46" t="b">
+        <v>1</v>
+      </c>
+      <c r="X46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>45448.3990139379</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>45448.3990184842</v>
+      </c>
+      <c r="AB46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47">
+        <v>10064</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47">
+        <v>78.5478</v>
+      </c>
+      <c r="H47">
+        <v>45.2456</v>
+      </c>
+      <c r="I47">
+        <v>100001</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>3.5</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S47" t="s">
+        <v>33</v>
+      </c>
+      <c r="T47" t="s">
+        <v>34</v>
+      </c>
+      <c r="U47" t="s">
+        <v>35</v>
+      </c>
+      <c r="V47" t="s">
+        <v>36</v>
+      </c>
+      <c r="W47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>45449.4956145595</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>45449.4973112112</v>
+      </c>
+      <c r="AB47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>45449.4973112112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48">
+        <v>10062</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48">
+        <v>78.5478</v>
+      </c>
+      <c r="H48">
+        <v>45.2456</v>
+      </c>
+      <c r="I48">
+        <v>100001</v>
+      </c>
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>3.5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S48" t="s">
+        <v>33</v>
+      </c>
+      <c r="T48" t="s">
+        <v>34</v>
+      </c>
+      <c r="U48" t="s">
+        <v>35</v>
+      </c>
+      <c r="V48" t="s">
+        <v>36</v>
+      </c>
+      <c r="W48" t="b">
+        <v>1</v>
+      </c>
+      <c r="X48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>45449.4906516781</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>45449.4906553217</v>
+      </c>
+      <c r="AB48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49">
+        <v>10063</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49">
+        <v>78.5478</v>
+      </c>
+      <c r="H49">
+        <v>45.2456</v>
+      </c>
+      <c r="I49">
+        <v>100001</v>
+      </c>
+      <c r="K49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>3.5</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S49" t="s">
+        <v>33</v>
+      </c>
+      <c r="T49" t="s">
+        <v>34</v>
+      </c>
+      <c r="U49" t="s">
+        <v>35</v>
+      </c>
+      <c r="V49" t="s">
+        <v>36</v>
+      </c>
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>45449.4916493447</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>45449.4916537708</v>
+      </c>
+      <c r="AB49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50">
+        <v>10061</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50">
+        <v>78.5478</v>
+      </c>
+      <c r="H50">
+        <v>45.2456</v>
+      </c>
+      <c r="I50">
+        <v>100001</v>
+      </c>
+      <c r="K50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>3.5</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S50" t="s">
+        <v>33</v>
+      </c>
+      <c r="T50" t="s">
+        <v>34</v>
+      </c>
+      <c r="U50" t="s">
+        <v>35</v>
+      </c>
+      <c r="V50" t="s">
+        <v>36</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>45449.4904433658</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>45449.4924108696</v>
+      </c>
+      <c r="AB50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>45449.4924108696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51">
+        <v>10065</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51">
+        <v>78.5478</v>
+      </c>
+      <c r="H51">
+        <v>45.2456</v>
+      </c>
+      <c r="I51">
+        <v>100001</v>
+      </c>
+      <c r="K51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>3.5</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S51" t="s">
+        <v>33</v>
+      </c>
+      <c r="T51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U51" t="s">
+        <v>35</v>
+      </c>
+      <c r="V51" t="s">
+        <v>36</v>
+      </c>
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>45449.4958273139</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>45449.4958315589</v>
+      </c>
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52">
+        <v>10066</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52">
+        <v>78.5478</v>
+      </c>
+      <c r="H52">
+        <v>45.2456</v>
+      </c>
+      <c r="I52">
+        <v>100001</v>
+      </c>
+      <c r="K52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>3.5</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S52" t="s">
+        <v>33</v>
+      </c>
+      <c r="T52" t="s">
+        <v>34</v>
+      </c>
+      <c r="U52" t="s">
+        <v>35</v>
+      </c>
+      <c r="V52" t="s">
+        <v>36</v>
+      </c>
+      <c r="W52" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>45449.4967514667</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>45449.4967553289</v>
+      </c>
+      <c r="AB52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53">
+        <v>10068</v>
+      </c>
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53">
+        <v>78.5478</v>
+      </c>
+      <c r="H53">
+        <v>45.2456</v>
+      </c>
+      <c r="I53">
+        <v>100001</v>
+      </c>
+      <c r="K53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>3.5</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S53" t="s">
+        <v>33</v>
+      </c>
+      <c r="T53" t="s">
+        <v>34</v>
+      </c>
+      <c r="U53" t="s">
+        <v>35</v>
+      </c>
+      <c r="V53" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" t="b">
+        <v>1</v>
+      </c>
+      <c r="X53" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>45463.3770117952</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>45463.3770170685</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54">
+        <v>10069</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54">
+        <v>78.5478</v>
+      </c>
+      <c r="H54">
+        <v>45.2456</v>
+      </c>
+      <c r="I54">
+        <v>100001</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>3.5</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S54" t="s">
+        <v>33</v>
+      </c>
+      <c r="T54" t="s">
+        <v>34</v>
+      </c>
+      <c r="U54" t="s">
+        <v>35</v>
+      </c>
+      <c r="V54" t="s">
+        <v>36</v>
+      </c>
+      <c r="W54" t="b">
+        <v>1</v>
+      </c>
+      <c r="X54" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>45463.3780076821</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>45463.3780159503</v>
+      </c>
+      <c r="AB54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55">
+        <v>10067</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55">
+        <v>78.5478</v>
+      </c>
+      <c r="H55">
+        <v>45.2456</v>
+      </c>
+      <c r="I55">
+        <v>100001</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>3.5</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T55" t="s">
+        <v>34</v>
+      </c>
+      <c r="U55" t="s">
+        <v>35</v>
+      </c>
+      <c r="V55" t="s">
+        <v>36</v>
+      </c>
+      <c r="W55" t="b">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>45463.3767583768</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>45463.3787965623</v>
+      </c>
+      <c r="AB55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>45463.3787965623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56">
+        <v>10070</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56">
+        <v>78.5478</v>
+      </c>
+      <c r="H56">
+        <v>45.2456</v>
+      </c>
+      <c r="I56">
+        <v>100001</v>
+      </c>
+      <c r="K56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>3.5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S56" t="s">
+        <v>33</v>
+      </c>
+      <c r="T56" t="s">
+        <v>34</v>
+      </c>
+      <c r="U56" t="s">
+        <v>35</v>
+      </c>
+      <c r="V56" t="s">
+        <v>36</v>
+      </c>
+      <c r="W56" t="b">
+        <v>1</v>
+      </c>
+      <c r="X56" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>45463.4529782969</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>45463.4529864957</v>
+      </c>
+      <c r="AB56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57">
+        <v>10071</v>
+      </c>
+      <c r="B57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57">
+        <v>78.5478</v>
+      </c>
+      <c r="H57">
+        <v>45.2456</v>
+      </c>
+      <c r="I57">
+        <v>100001</v>
+      </c>
+      <c r="K57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>3.5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S57" t="s">
+        <v>33</v>
+      </c>
+      <c r="T57" t="s">
+        <v>34</v>
+      </c>
+      <c r="U57" t="s">
+        <v>35</v>
+      </c>
+      <c r="V57" t="s">
+        <v>36</v>
+      </c>
+      <c r="W57" t="b">
+        <v>1</v>
+      </c>
+      <c r="X57" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>45463.4540750723</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>45463.4540803942</v>
+      </c>
+      <c r="AB57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58">
+        <v>10073</v>
+      </c>
+      <c r="B58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58">
+        <v>78.5478</v>
+      </c>
+      <c r="H58">
+        <v>45.2456</v>
+      </c>
+      <c r="I58">
+        <v>100001</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>3.5</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S58" t="s">
+        <v>33</v>
+      </c>
+      <c r="T58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U58" t="s">
+        <v>35</v>
+      </c>
+      <c r="V58" t="s">
+        <v>36</v>
+      </c>
+      <c r="W58" t="b">
+        <v>1</v>
+      </c>
+      <c r="X58" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>45463.532948931</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>45463.5329534236</v>
+      </c>
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59">
+        <v>10072</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59">
+        <v>78.5478</v>
+      </c>
+      <c r="H59">
+        <v>45.2456</v>
+      </c>
+      <c r="I59">
+        <v>100001</v>
+      </c>
+      <c r="K59" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>3.5</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S59" t="s">
+        <v>33</v>
+      </c>
+      <c r="T59" t="s">
+        <v>34</v>
+      </c>
+      <c r="U59" t="s">
+        <v>35</v>
+      </c>
+      <c r="V59" t="s">
+        <v>36</v>
+      </c>
+      <c r="W59" t="b">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>45463.5326609852</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>45463.5343478929</v>
+      </c>
+      <c r="AB59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>45463.5343478929</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60">
+        <v>10074</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60">
+        <v>78.5478</v>
+      </c>
+      <c r="H60">
+        <v>45.2456</v>
+      </c>
+      <c r="I60">
+        <v>100001</v>
+      </c>
+      <c r="K60" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>3.5</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S60" t="s">
+        <v>33</v>
+      </c>
+      <c r="T60" t="s">
+        <v>34</v>
+      </c>
+      <c r="U60" t="s">
+        <v>35</v>
+      </c>
+      <c r="V60" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>45463.5362311123</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>45463.5383465383</v>
+      </c>
+      <c r="AB60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>45463.5383465383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61">
+        <v>10075</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61">
+        <v>78.5478</v>
+      </c>
+      <c r="H61">
+        <v>45.2456</v>
+      </c>
+      <c r="I61">
+        <v>100001</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>3.5</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S61" t="s">
+        <v>33</v>
+      </c>
+      <c r="T61" t="s">
+        <v>34</v>
+      </c>
+      <c r="U61" t="s">
+        <v>35</v>
+      </c>
+      <c r="V61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W61" t="b">
+        <v>1</v>
+      </c>
+      <c r="X61" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>45463.5366120411</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>45463.5366155317</v>
+      </c>
+      <c r="AB61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62">
+        <v>10077</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62">
+        <v>78.5478</v>
+      </c>
+      <c r="H62">
+        <v>45.2456</v>
+      </c>
+      <c r="I62">
+        <v>100001</v>
+      </c>
+      <c r="K62" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>3.5</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S62" t="s">
+        <v>33</v>
+      </c>
+      <c r="T62" t="s">
+        <v>34</v>
+      </c>
+      <c r="U62" t="s">
+        <v>35</v>
+      </c>
+      <c r="V62" t="s">
+        <v>36</v>
+      </c>
+      <c r="W62" t="b">
+        <v>1</v>
+      </c>
+      <c r="X62" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>45463.5473928728</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>45463.5473978132</v>
+      </c>
+      <c r="AB62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63">
+        <v>10078</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63">
+        <v>78.5478</v>
+      </c>
+      <c r="H63">
+        <v>45.2456</v>
+      </c>
+      <c r="I63">
+        <v>100001</v>
+      </c>
+      <c r="K63" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>3.5</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S63" t="s">
+        <v>33</v>
+      </c>
+      <c r="T63" t="s">
+        <v>34</v>
+      </c>
+      <c r="U63" t="s">
+        <v>35</v>
+      </c>
+      <c r="V63" t="s">
+        <v>36</v>
+      </c>
+      <c r="W63" t="b">
+        <v>1</v>
+      </c>
+      <c r="X63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>45463.5485528403</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>45463.5485567924</v>
+      </c>
+      <c r="AB63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64">
+        <v>10076</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64">
+        <v>78.5478</v>
+      </c>
+      <c r="H64">
+        <v>45.2456</v>
+      </c>
+      <c r="I64">
+        <v>100001</v>
+      </c>
+      <c r="K64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>3.5</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S64" t="s">
+        <v>33</v>
+      </c>
+      <c r="T64" t="s">
+        <v>34</v>
+      </c>
+      <c r="U64" t="s">
+        <v>35</v>
+      </c>
+      <c r="V64" t="s">
+        <v>36</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+      <c r="X64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>45463.5471112595</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>45463.5492009251</v>
+      </c>
+      <c r="AB64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>45463.5492009251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65">
+        <v>10080</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65">
+        <v>78.5478</v>
+      </c>
+      <c r="H65">
+        <v>45.2456</v>
+      </c>
+      <c r="I65">
+        <v>100001</v>
+      </c>
+      <c r="K65" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>3.5</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S65" t="s">
+        <v>33</v>
+      </c>
+      <c r="T65" t="s">
+        <v>34</v>
+      </c>
+      <c r="U65" t="s">
+        <v>35</v>
+      </c>
+      <c r="V65" t="s">
+        <v>36</v>
+      </c>
+      <c r="W65" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>45468.2438448219</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>45468.2438508608</v>
+      </c>
+      <c r="AB65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66">
+        <v>10081</v>
+      </c>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66">
+        <v>78.5478</v>
+      </c>
+      <c r="H66">
+        <v>45.2456</v>
+      </c>
+      <c r="I66">
+        <v>100001</v>
+      </c>
+      <c r="K66" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>3.5</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S66" t="s">
+        <v>33</v>
+      </c>
+      <c r="T66" t="s">
+        <v>34</v>
+      </c>
+      <c r="U66" t="s">
+        <v>35</v>
+      </c>
+      <c r="V66" t="s">
+        <v>36</v>
+      </c>
+      <c r="W66" t="b">
+        <v>1</v>
+      </c>
+      <c r="X66" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>45468.2448345738</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>45468.2448418123</v>
+      </c>
+      <c r="AB66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67">
+        <v>10079</v>
+      </c>
+      <c r="B67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67">
+        <v>78.5478</v>
+      </c>
+      <c r="H67">
+        <v>45.2456</v>
+      </c>
+      <c r="I67">
+        <v>100001</v>
+      </c>
+      <c r="K67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>3.5</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S67" t="s">
+        <v>33</v>
+      </c>
+      <c r="T67" t="s">
+        <v>34</v>
+      </c>
+      <c r="U67" t="s">
+        <v>35</v>
+      </c>
+      <c r="V67" t="s">
+        <v>36</v>
+      </c>
+      <c r="W67" t="b">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>45468.2436156567</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>45468.2455882781</v>
+      </c>
+      <c r="AB67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>45468.2455882781</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68">
+        <v>10082</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68">
+        <v>7.6788887</v>
+      </c>
+      <c r="H68">
+        <v>7.8998889</v>
+      </c>
+      <c r="I68">
+        <v>100005</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>8</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S68" t="s">
+        <v>33</v>
+      </c>
+      <c r="T68" t="s">
+        <v>34</v>
+      </c>
+      <c r="U68" t="s">
+        <v>35</v>
+      </c>
+      <c r="V68" t="s">
+        <v>36</v>
+      </c>
+      <c r="W68" t="b">
+        <v>1</v>
+      </c>
+      <c r="X68" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>45470.4033113065</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>45470.4034258847</v>
+      </c>
+      <c r="AB68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69">
+        <v>10083</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69">
+        <v>78.5478</v>
+      </c>
+      <c r="H69">
+        <v>45.2456</v>
+      </c>
+      <c r="I69">
+        <v>100001</v>
+      </c>
+      <c r="K69" t="s">
+        <v>32</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>3.5</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S69" t="s">
+        <v>33</v>
+      </c>
+      <c r="T69" t="s">
+        <v>34</v>
+      </c>
+      <c r="U69" t="s">
+        <v>35</v>
+      </c>
+      <c r="V69" t="s">
+        <v>36</v>
+      </c>
+      <c r="W69" t="b">
+        <v>1</v>
+      </c>
+      <c r="X69" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>45470.486348627</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>45470.4863574054</v>
+      </c>
+      <c r="AB69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70">
+        <v>10084</v>
+      </c>
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70">
+        <v>78.5478</v>
+      </c>
+      <c r="H70">
+        <v>45.2456</v>
+      </c>
+      <c r="I70">
+        <v>100001</v>
+      </c>
+      <c r="K70" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>3.5</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S70" t="s">
+        <v>33</v>
+      </c>
+      <c r="T70" t="s">
+        <v>34</v>
+      </c>
+      <c r="U70" t="s">
+        <v>35</v>
+      </c>
+      <c r="V70" t="s">
+        <v>36</v>
+      </c>
+      <c r="W70" t="b">
+        <v>1</v>
+      </c>
+      <c r="X70" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>45470.4865797461</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>45470.4865843819</v>
+      </c>
+      <c r="AB70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71">
+        <v>10085</v>
+      </c>
+      <c r="B71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71">
+        <v>78.5478</v>
+      </c>
+      <c r="H71">
+        <v>45.2456</v>
+      </c>
+      <c r="I71">
+        <v>100001</v>
+      </c>
+      <c r="K71" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>3.5</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S71" t="s">
+        <v>33</v>
+      </c>
+      <c r="T71" t="s">
+        <v>34</v>
+      </c>
+      <c r="U71" t="s">
+        <v>35</v>
+      </c>
+      <c r="V71" t="s">
+        <v>36</v>
+      </c>
+      <c r="W71" t="b">
+        <v>1</v>
+      </c>
+      <c r="X71" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>45470.4876119998</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>45470.4876187876</v>
+      </c>
+      <c r="AB71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20420F-48C1-40DB-AE52-2C95B658AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF92EB-6BB7-4262-B349-4BDF53A75C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>lang_code</t>
   </si>
@@ -172,15 +172,9 @@
     <t>WURICI</t>
   </si>
   <si>
-    <t>RCI</t>
-  </si>
-  <si>
     <t>Cocody les II Plateaux, 7ème Tranche, îlot n°232 / Lot 3317 bis</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CCOCO</t>
   </si>
   <si>
@@ -194,6 +188,9 @@
   </si>
   <si>
     <t>CIV</t>
+  </si>
+  <si>
+    <t>REG</t>
   </si>
 </sst>
 </file>
@@ -609,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,16 +718,10 @@
         <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="H2" s="5">
         <v>7.5411000000000001</v>
@@ -739,13 +730,13 @@
         <v>5.5471000000000004</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="M2" s="5">
         <v>2</v>
@@ -769,13 +760,13 @@
         <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="5">
-        <v>225</v>
+        <v>37</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>29</v>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF92EB-6BB7-4262-B349-4BDF53A75C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C512A390-CEDC-49DC-9E61-CE0723059D20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>lang_code</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>REG</t>
+  </si>
+  <si>
+    <t>COCO</t>
   </si>
 </sst>
 </file>
@@ -606,37 +609,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="22.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="17" max="18" width="16.36328125" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
+    <col min="17" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
     <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="16.54296875" customWidth="1"/>
-    <col min="22" max="22" width="10.81640625" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -707,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -766,7 +769,7 @@
         <v>37</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>29</v>
